--- a/cef/cefScraping.xlsx
+++ b/cef/cefScraping.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="54">
   <si>
     <t>Link</t>
   </si>
@@ -61,169 +61,127 @@
     <t>Length</t>
   </si>
   <si>
-    <t>https://www.cef.co.uk/catalogue/products/115514-200a-4-pole-3-position-metal-changeover-switch</t>
-  </si>
-  <si>
-    <t>https://www.cef.co.uk/catalogue/products/115512-125a-4-pole-3-position-metal-changeover-switch</t>
-  </si>
-  <si>
-    <t>https://www.cef.co.uk/catalogue/products/115518-250a-4-pole-3-position-metal-changeover-switch</t>
-  </si>
-  <si>
-    <t>https://www.cef.co.uk/catalogue/products/115519-315a-4-pole-3-position-metal-changeover-switch</t>
-  </si>
-  <si>
-    <t>https://www.cef.co.uk/catalogue/products/115511-100a-4-pole-3-position-metal-changeover-switch</t>
-  </si>
-  <si>
-    <t>https://www.cef.co.uk/catalogue/products/115513-160a-4-pole-3-position-metal-changeover-switch</t>
-  </si>
-  <si>
-    <t>https://www.cef.co.uk/catalogue/products/115523-400a-4-pole-3-position-metal-changeover-switch</t>
-  </si>
-  <si>
-    <t>Proteus 200A 4 Pole 3 Position Metal Changeover Switch</t>
-  </si>
-  <si>
-    <t>Proteus 125A 4 Pole 3 Position Metal Changeover Switch</t>
-  </si>
-  <si>
-    <t>Proteus 250A 4 Pole 3 Position Metal Changeover Switch</t>
-  </si>
-  <si>
-    <t>Proteus 315A 4 Pole 3 Position Metal Changeover Switch</t>
-  </si>
-  <si>
-    <t>Proteus 100A 4 Pole 3 Position Metal Changeover Switch</t>
-  </si>
-  <si>
-    <t>Proteus 160A 4 Pole 3 Position Metal Changeover Switch</t>
-  </si>
-  <si>
-    <t>Proteus 400A 4 Pole 3 Position Metal Changeover Switch</t>
-  </si>
-  <si>
-    <t>TCO2004</t>
-  </si>
-  <si>
-    <t>TCO1254</t>
-  </si>
-  <si>
-    <t>TCO2504</t>
-  </si>
-  <si>
-    <t>TCO3154</t>
-  </si>
-  <si>
-    <t>TCO1004</t>
-  </si>
-  <si>
-    <t>TCO1604</t>
-  </si>
-  <si>
-    <t>TCO4004</t>
-  </si>
-  <si>
-    <t>['https://pdg.cef.co.uk/downloads/pdg/proteus_tco2004_datasheet/proteus_tco2004_datasheet.pdf']</t>
-  </si>
-  <si>
-    <t>['https://pdg.cef.co.uk/downloads/pdg/proteus_tco1254_datasheet/proteus_tco1254_datasheet.pdf']</t>
-  </si>
-  <si>
-    <t>['https://pdg.cef.co.uk/downloads/pdg/proteus_tco2504_datasheet/proteus_tco2504_datasheet.pdf']</t>
-  </si>
-  <si>
-    <t>['https://pdg.cef.co.uk/downloads/pdg/proteus_tco3154_datasheet/proteus_tco3154_datasheet.pdf']</t>
-  </si>
-  <si>
-    <t>['https://pdg.cef.co.uk/downloads/pdg/proteus_tco1004_datasheet/proteus_tco1004_datasheet.pdf']</t>
-  </si>
-  <si>
-    <t>['https://pdg.cef.co.uk/downloads/pdg/proteus_tco1604_datasheet/proteus_tco1604_datasheet.pdf']</t>
-  </si>
-  <si>
-    <t>['https://pdg.cef.co.uk/downloads/pdg/proteus_tco4004_datasheet/proteus_tco4004_datasheet.pdf']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only one supply can be switched on at a time
-Removable end plates
-Robust enclosure powder coated to RAL7035
+    <t>https://www.cef.co.uk/catalogue/products/2326362-h6243y-1-5mm-pvc-3-core-and-earth-cable-red-100m-drum</t>
+  </si>
+  <si>
+    <t>https://www.cef.co.uk/catalogue/products/4204735-h6243y-1-0mm-3-core-and-earth-cable-grey-cut-length-sold-by-the-mtr</t>
+  </si>
+  <si>
+    <t>https://www.cef.co.uk/catalogue/products/4204736-h6243y-1-5mm-3-core-and-earth-cable-grey-cut-length-sold-by-the-mtr</t>
+  </si>
+  <si>
+    <t>https://www.cef.co.uk/catalogue/products/4204737-h6243y-2-5mm-3-core-and-earth-cable-grey-cut-length-sold-by-the-mtr</t>
+  </si>
+  <si>
+    <t>https://www.cef.co.uk/catalogue/products/1959363-3183y-1-5mm-arctic-grade-round-flexible-cable-yellow-50m-drum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H6243Y 1.5mm² PVC 3 Core and Earth Cable Red (100m Drum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H6243Y 1.0mm² PVC 3 Core and Earth Cable Grey (Cut Length Sold By The Mtr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H6243Y 1.5mm² PVC 3 Core and Earth Cable Grey (Cut Length Sold By The Mtr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H6243Y 2.5mm² PVC 3 Core and Earth Cable Grey (Cut Length Sold By The Mtr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3183Y 1.5mm² Arctic Grade Round Flexible Cable Yellow (50m Drum)</t>
+  </si>
+  <si>
+    <t>H6243Y1.5R100</t>
+  </si>
+  <si>
+    <t>H6243Y1.0G</t>
+  </si>
+  <si>
+    <t>H6243Y1.5G</t>
+  </si>
+  <si>
+    <t>H6243Y2.5G</t>
+  </si>
+  <si>
+    <t>3183YA1.5Y050</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plain annealed copper conductor
+PVC insulated
+PVC sheathed cable with circuit protective conductor
 </t>
   </si>
   <si>
-    <t>565mm</t>
-  </si>
-  <si>
-    <t>440mm</t>
-  </si>
-  <si>
-    <t>720mm</t>
-  </si>
-  <si>
-    <t>700mm</t>
-  </si>
-  <si>
-    <t>500mm</t>
-  </si>
-  <si>
-    <t>800mm</t>
-  </si>
-  <si>
-    <t>['https://pdg.cef.co.uk/images/pdg/proteusind_tco2004/384x384/proteusind_tco2004.jpg']</t>
-  </si>
-  <si>
-    <t>['https://pdg.cef.co.uk/images/pdg/proteusind_tco125_b/384x384/proteusind_tco125_b.jpg']</t>
-  </si>
-  <si>
-    <t>['https://pdg.cef.co.uk/images/pdg/proteusind_tco2504/384x384/proteusind_tco2504.jpg']</t>
-  </si>
-  <si>
-    <t>['https://pdg.cef.co.uk/images/pdg/proteusind_tco3154/384x384/proteusind_tco3154.jpg']</t>
-  </si>
-  <si>
-    <t>['https://pdg.cef.co.uk/images/pdg/proteusind_tco1004_b/384x384/proteusind_tco1004_b.jpg']</t>
-  </si>
-  <si>
-    <t>['https://pdg.cef.co.uk/images/pdg/proteusind_tco1604/384x384/proteusind_tco1604.jpg']</t>
-  </si>
-  <si>
-    <t>['https://pdg.cef.co.uk/images/pdg/proteusind_tco4004/384x384/proteusind_tco4004.jpg']</t>
-  </si>
-  <si>
-    <t>20kg</t>
-  </si>
-  <si>
-    <t>12kg</t>
-  </si>
-  <si>
-    <t>33kg</t>
-  </si>
-  <si>
-    <t>0037-0672</t>
-  </si>
-  <si>
-    <t>0037-0666</t>
-  </si>
-  <si>
-    <t>0037-0684</t>
-  </si>
-  <si>
-    <t>0037-0687</t>
-  </si>
-  <si>
-    <t>0037-0663</t>
-  </si>
-  <si>
-    <t>0037-0669</t>
-  </si>
-  <si>
-    <t>0037-0699</t>
+    <t xml:space="preserve">Flexible annealed copper conductor
+PVC insulated
+PVC sheathed flexible cords
+</t>
+  </si>
+  <si>
+    <t>['https://pdg.cef.co.uk/images/pdg/cable_h6243y1_5_red/384x384/cable_h6243y1_5_red.jpg']</t>
+  </si>
+  <si>
+    <t>['https://pdg.cef.co.uk/images/pdg/cable_h6243y1_0_grey/384x384/cable_h6243y1_0_grey.jpg']</t>
+  </si>
+  <si>
+    <t>['https://pdg.cef.co.uk/images/pdg/cable_h6243y1_5_grey/384x384/cable_h6243y1_5_grey.jpg']</t>
+  </si>
+  <si>
+    <t>['https://pdg.cef.co.uk/images/pdg/cable_h6243y2_5_grey/384x384/cable_h6243y2_5_grey.jpg']</t>
+  </si>
+  <si>
+    <t>['https://pdg.cef.co.uk/images/pdg/cable_3183y_arctic_yellow/384x384/cable_3183y_arctic_yellow.jpg']</t>
+  </si>
+  <si>
+    <t>0.1156kg</t>
+  </si>
+  <si>
+    <t>0.0145kg</t>
+  </si>
+  <si>
+    <t>0.1172kg</t>
+  </si>
+  <si>
+    <t>0114-3061</t>
+  </si>
+  <si>
+    <t>1873-6906</t>
+  </si>
+  <si>
+    <t>1873-6909</t>
+  </si>
+  <si>
+    <t>1873-6912</t>
+  </si>
+  <si>
+    <t>0006-0457</t>
   </si>
   <si>
     <t>1 Year</t>
   </si>
   <si>
-    <t>Light Grey RAL7035</t>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>0.26mm</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>50m</t>
   </si>
 </sst>
 </file>
@@ -594,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,265 +610,244 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
         <v>52</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>63</v>
-      </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
         <v>48</v>
       </c>
-      <c r="I6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" t="s">
-        <v>68</v>
+      <c r="O6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -918,265 +855,244 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="O9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="O10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M11" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="O11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M12" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="O13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="O14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="O15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1184,265 +1100,2458 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" t="s">
+        <v>47</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" t="s">
+        <v>47</v>
+      </c>
+      <c r="O32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" t="s">
+        <v>46</v>
+      </c>
+      <c r="M33" t="s">
+        <v>47</v>
+      </c>
+      <c r="O33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" t="s">
+        <v>46</v>
+      </c>
+      <c r="M34" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36" t="s">
+        <v>47</v>
+      </c>
+      <c r="O36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" t="s">
+        <v>46</v>
+      </c>
+      <c r="M37" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" t="s">
+        <v>46</v>
+      </c>
+      <c r="M38" t="s">
+        <v>47</v>
+      </c>
+      <c r="O38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" t="s">
+        <v>48</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" t="s">
+        <v>46</v>
+      </c>
+      <c r="M40" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" t="s">
+        <v>46</v>
+      </c>
+      <c r="M41" t="s">
+        <v>48</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" t="s">
+        <v>47</v>
+      </c>
+      <c r="O42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" t="s">
+        <v>46</v>
+      </c>
+      <c r="M43" t="s">
+        <v>48</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" t="s">
+        <v>43</v>
+      </c>
+      <c r="L44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M44" t="s">
+        <v>48</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M45" t="s">
+        <v>48</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" t="s">
+        <v>41</v>
+      </c>
+      <c r="L46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M46" t="s">
+        <v>47</v>
+      </c>
+      <c r="O46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" t="s">
+        <v>41</v>
+      </c>
+      <c r="L47" t="s">
+        <v>46</v>
+      </c>
+      <c r="M47" t="s">
+        <v>47</v>
+      </c>
+      <c r="O47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" t="s">
+        <v>41</v>
+      </c>
+      <c r="L48" t="s">
+        <v>46</v>
+      </c>
+      <c r="M48" t="s">
+        <v>47</v>
+      </c>
+      <c r="O48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" t="s">
+        <v>41</v>
+      </c>
+      <c r="L49" t="s">
+        <v>46</v>
+      </c>
+      <c r="M49" t="s">
+        <v>47</v>
+      </c>
+      <c r="O49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" t="s">
+        <v>42</v>
+      </c>
+      <c r="L50" t="s">
+        <v>46</v>
+      </c>
+      <c r="M50" t="s">
+        <v>48</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" t="s">
+        <v>43</v>
+      </c>
+      <c r="L51" t="s">
+        <v>46</v>
+      </c>
+      <c r="M51" t="s">
+        <v>48</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52" t="s">
+        <v>39</v>
+      </c>
+      <c r="K52" t="s">
+        <v>44</v>
+      </c>
+      <c r="L52" t="s">
+        <v>46</v>
+      </c>
+      <c r="M52" t="s">
+        <v>48</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" t="s">
+        <v>39</v>
+      </c>
+      <c r="K53" t="s">
+        <v>42</v>
+      </c>
+      <c r="L53" t="s">
+        <v>46</v>
+      </c>
+      <c r="M53" t="s">
+        <v>48</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" t="s">
+        <v>39</v>
+      </c>
+      <c r="K54" t="s">
+        <v>43</v>
+      </c>
+      <c r="L54" t="s">
+        <v>46</v>
+      </c>
+      <c r="M54" t="s">
+        <v>48</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" t="s">
+        <v>39</v>
+      </c>
+      <c r="K55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L55" t="s">
+        <v>46</v>
+      </c>
+      <c r="M55" t="s">
+        <v>48</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" t="s">
+        <v>42</v>
+      </c>
+      <c r="L56" t="s">
+        <v>46</v>
+      </c>
+      <c r="M56" t="s">
+        <v>48</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57" t="s">
+        <v>39</v>
+      </c>
+      <c r="K57" t="s">
+        <v>43</v>
+      </c>
+      <c r="L57" t="s">
+        <v>46</v>
+      </c>
+      <c r="M57" t="s">
+        <v>48</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s">
+        <v>36</v>
+      </c>
+      <c r="J58" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" t="s">
+        <v>44</v>
+      </c>
+      <c r="L58" t="s">
+        <v>46</v>
+      </c>
+      <c r="M58" t="s">
+        <v>48</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" t="s">
+        <v>41</v>
+      </c>
+      <c r="L59" t="s">
+        <v>46</v>
+      </c>
+      <c r="M59" t="s">
+        <v>47</v>
+      </c>
+      <c r="O59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" t="s">
+        <v>38</v>
+      </c>
+      <c r="K60" t="s">
+        <v>41</v>
+      </c>
+      <c r="L60" t="s">
+        <v>46</v>
+      </c>
+      <c r="M60" t="s">
+        <v>47</v>
+      </c>
+      <c r="O60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" t="s">
+        <v>41</v>
+      </c>
+      <c r="L61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M61" t="s">
+        <v>47</v>
+      </c>
+      <c r="O61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" t="s">
+        <v>34</v>
+      </c>
+      <c r="J62" t="s">
+        <v>39</v>
+      </c>
+      <c r="K62" t="s">
+        <v>42</v>
+      </c>
+      <c r="L62" t="s">
+        <v>46</v>
+      </c>
+      <c r="M62" t="s">
+        <v>48</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" t="s">
+        <v>35</v>
+      </c>
+      <c r="J63" t="s">
+        <v>39</v>
+      </c>
+      <c r="K63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L63" t="s">
+        <v>46</v>
+      </c>
+      <c r="M63" t="s">
+        <v>48</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" t="s">
+        <v>39</v>
+      </c>
+      <c r="K64" t="s">
+        <v>44</v>
+      </c>
+      <c r="L64" t="s">
+        <v>46</v>
+      </c>
+      <c r="M64" t="s">
+        <v>48</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" t="s">
+        <v>38</v>
+      </c>
+      <c r="K65" t="s">
+        <v>41</v>
+      </c>
+      <c r="L65" t="s">
+        <v>46</v>
+      </c>
+      <c r="M65" t="s">
+        <v>47</v>
+      </c>
+      <c r="O65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" t="s">
+        <v>38</v>
+      </c>
+      <c r="K66" t="s">
+        <v>41</v>
+      </c>
+      <c r="L66" t="s">
+        <v>46</v>
+      </c>
+      <c r="M66" t="s">
+        <v>47</v>
+      </c>
+      <c r="O66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" t="s">
+        <v>34</v>
+      </c>
+      <c r="J67" t="s">
+        <v>39</v>
+      </c>
+      <c r="K67" t="s">
+        <v>42</v>
+      </c>
+      <c r="L67" t="s">
+        <v>46</v>
+      </c>
+      <c r="M67" t="s">
+        <v>48</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" t="s">
+        <v>35</v>
+      </c>
+      <c r="J68" t="s">
+        <v>39</v>
+      </c>
+      <c r="K68" t="s">
+        <v>43</v>
+      </c>
+      <c r="L68" t="s">
+        <v>46</v>
+      </c>
+      <c r="M68" t="s">
+        <v>48</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" t="s">
+        <v>36</v>
+      </c>
+      <c r="J69" t="s">
+        <v>39</v>
+      </c>
+      <c r="K69" t="s">
+        <v>44</v>
+      </c>
+      <c r="L69" t="s">
+        <v>46</v>
+      </c>
+      <c r="M69" t="s">
+        <v>48</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" t="s">
+        <v>31</v>
+      </c>
+      <c r="I70" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" t="s">
+        <v>38</v>
+      </c>
+      <c r="K70" t="s">
+        <v>41</v>
+      </c>
+      <c r="L70" t="s">
+        <v>46</v>
+      </c>
+      <c r="M70" t="s">
+        <v>47</v>
+      </c>
+      <c r="O70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" t="s">
+        <v>38</v>
+      </c>
+      <c r="K71" t="s">
+        <v>41</v>
+      </c>
+      <c r="L71" t="s">
+        <v>46</v>
+      </c>
+      <c r="M71" t="s">
+        <v>47</v>
+      </c>
+      <c r="O71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" t="s">
+        <v>33</v>
+      </c>
+      <c r="J72" t="s">
+        <v>38</v>
+      </c>
+      <c r="K72" t="s">
+        <v>41</v>
+      </c>
+      <c r="L72" t="s">
+        <v>46</v>
+      </c>
+      <c r="M72" t="s">
+        <v>47</v>
+      </c>
+      <c r="O72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" t="s">
+        <v>38</v>
+      </c>
+      <c r="K73" t="s">
+        <v>41</v>
+      </c>
+      <c r="L73" t="s">
+        <v>46</v>
+      </c>
+      <c r="M73" t="s">
+        <v>47</v>
+      </c>
+      <c r="O73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" t="s">
+        <v>39</v>
+      </c>
+      <c r="K74" t="s">
+        <v>42</v>
+      </c>
+      <c r="L74" t="s">
+        <v>46</v>
+      </c>
+      <c r="M74" t="s">
+        <v>48</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" t="s">
+        <v>35</v>
+      </c>
+      <c r="J75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K75" t="s">
+        <v>43</v>
+      </c>
+      <c r="L75" t="s">
+        <v>46</v>
+      </c>
+      <c r="M75" t="s">
+        <v>48</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" t="s">
+        <v>36</v>
+      </c>
+      <c r="J76" t="s">
+        <v>39</v>
+      </c>
+      <c r="K76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L76" t="s">
+        <v>46</v>
+      </c>
+      <c r="M76" t="s">
+        <v>48</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" t="s">
+        <v>38</v>
+      </c>
+      <c r="K77" t="s">
+        <v>41</v>
+      </c>
+      <c r="L77" t="s">
+        <v>46</v>
+      </c>
+      <c r="M77" t="s">
+        <v>47</v>
+      </c>
+      <c r="O77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" t="s">
+        <v>38</v>
+      </c>
+      <c r="K78" t="s">
+        <v>41</v>
+      </c>
+      <c r="L78" t="s">
+        <v>46</v>
+      </c>
+      <c r="M78" t="s">
+        <v>47</v>
+      </c>
+      <c r="O78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" t="s">
+        <v>34</v>
+      </c>
+      <c r="J79" t="s">
+        <v>39</v>
+      </c>
+      <c r="K79" t="s">
+        <v>42</v>
+      </c>
+      <c r="L79" t="s">
+        <v>46</v>
+      </c>
+      <c r="M79" t="s">
+        <v>48</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" t="s">
+        <v>35</v>
+      </c>
+      <c r="J80" t="s">
+        <v>39</v>
+      </c>
+      <c r="K80" t="s">
+        <v>43</v>
+      </c>
+      <c r="L80" t="s">
+        <v>46</v>
+      </c>
+      <c r="M80" t="s">
+        <v>48</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81" t="s">
+        <v>39</v>
+      </c>
+      <c r="K81" t="s">
+        <v>44</v>
+      </c>
+      <c r="L81" t="s">
+        <v>46</v>
+      </c>
+      <c r="M81" t="s">
+        <v>48</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" t="s">
+        <v>33</v>
+      </c>
+      <c r="J82" t="s">
+        <v>38</v>
+      </c>
+      <c r="K82" t="s">
+        <v>41</v>
+      </c>
+      <c r="L82" t="s">
+        <v>46</v>
+      </c>
+      <c r="M82" t="s">
+        <v>47</v>
+      </c>
+      <c r="O82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" t="s">
         <v>29</v>
       </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="E83" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="I83" t="s">
+        <v>37</v>
+      </c>
+      <c r="J83" t="s">
+        <v>40</v>
+      </c>
+      <c r="K83" t="s">
+        <v>45</v>
+      </c>
+      <c r="L83" t="s">
+        <v>46</v>
+      </c>
+      <c r="M83" t="s">
+        <v>49</v>
+      </c>
+      <c r="N83" t="s">
         <v>50</v>
       </c>
-      <c r="J16" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" t="s">
+        <v>32</v>
+      </c>
+      <c r="I84" t="s">
         <v>37</v>
       </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="J84" t="s">
+        <v>40</v>
+      </c>
+      <c r="K84" t="s">
         <v>45</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="L84" t="s">
+        <v>46</v>
+      </c>
+      <c r="M84" t="s">
+        <v>49</v>
+      </c>
+      <c r="N84" t="s">
+        <v>50</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="D85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" t="s">
+        <v>30</v>
+      </c>
+      <c r="F85" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" t="s">
+        <v>37</v>
+      </c>
+      <c r="J85" t="s">
+        <v>40</v>
+      </c>
+      <c r="K85" t="s">
+        <v>45</v>
+      </c>
+      <c r="L85" t="s">
+        <v>46</v>
+      </c>
+      <c r="M85" t="s">
         <v>49</v>
       </c>
-      <c r="I18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" t="s">
-        <v>67</v>
-      </c>
-      <c r="M18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="N85" t="s">
+        <v>50</v>
+      </c>
+      <c r="O85" t="s">
         <v>53</v>
-      </c>
-      <c r="J19" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" t="s">
-        <v>67</v>
-      </c>
-      <c r="M20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" t="s">
-        <v>67</v>
-      </c>
-      <c r="M22" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1468,6 +3577,69 @@
     <hyperlink ref="A20" r:id="rId19"/>
     <hyperlink ref="A21" r:id="rId20"/>
     <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
